--- a/Financials/Yearly/PTR_YR_FIN.xlsx
+++ b/Financials/Yearly/PTR_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6581E8-8A89-4EF0-A84E-38E0197A3D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTR" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>PTR</t>
   </si>
@@ -295,14 +296,17 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>293170900</v>
+        <v>299178200</v>
       </c>
       <c r="E8" s="3">
-        <v>235146200</v>
+        <v>239964600</v>
       </c>
       <c r="F8" s="3">
-        <v>250929000</v>
+        <v>256070800</v>
       </c>
       <c r="G8" s="3">
-        <v>332011200</v>
+        <v>338814400</v>
       </c>
       <c r="H8" s="3">
-        <v>328399000</v>
+        <v>335128200</v>
       </c>
       <c r="I8" s="3">
-        <v>319261900</v>
+        <v>325803900</v>
       </c>
       <c r="J8" s="3">
-        <v>291418900</v>
+        <v>297390300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>186981700</v>
+        <v>190813100</v>
       </c>
       <c r="E9" s="3">
-        <v>139560400</v>
+        <v>142420200</v>
       </c>
       <c r="F9" s="3">
-        <v>153689700</v>
+        <v>156838900</v>
       </c>
       <c r="G9" s="3">
-        <v>216141700</v>
+        <v>220570700</v>
       </c>
       <c r="H9" s="3">
-        <v>213026600</v>
+        <v>217391700</v>
       </c>
       <c r="I9" s="3">
-        <v>205207000</v>
+        <v>209411900</v>
       </c>
       <c r="J9" s="3">
-        <v>178520100</v>
+        <v>182178200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>106189200</v>
+        <v>108365100</v>
       </c>
       <c r="E10" s="3">
-        <v>95585800</v>
+        <v>97544400</v>
       </c>
       <c r="F10" s="3">
-        <v>97239300</v>
+        <v>99231800</v>
       </c>
       <c r="G10" s="3">
-        <v>115869500</v>
+        <v>118243700</v>
       </c>
       <c r="H10" s="3">
-        <v>115372400</v>
+        <v>117736500</v>
       </c>
       <c r="I10" s="3">
-        <v>114054900</v>
+        <v>116392000</v>
       </c>
       <c r="J10" s="3">
-        <v>112898800</v>
+        <v>115212200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3473500</v>
+        <v>3544600</v>
       </c>
       <c r="E12" s="3">
-        <v>2701500</v>
+        <v>2756900</v>
       </c>
       <c r="F12" s="3">
-        <v>2673000</v>
+        <v>2727800</v>
       </c>
       <c r="G12" s="3">
-        <v>3208800</v>
+        <v>3274500</v>
       </c>
       <c r="H12" s="3">
-        <v>3679500</v>
+        <v>3754900</v>
       </c>
       <c r="I12" s="3">
-        <v>3486200</v>
+        <v>3557700</v>
       </c>
       <c r="J12" s="3">
-        <v>3476900</v>
+        <v>3548200</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -878,34 +916,34 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>34521400</v>
+        <v>35228800</v>
       </c>
       <c r="E15" s="3">
-        <v>31725100</v>
+        <v>32375200</v>
       </c>
       <c r="F15" s="3">
-        <v>29504100</v>
+        <v>30108700</v>
       </c>
       <c r="G15" s="3">
-        <v>25808400</v>
+        <v>26337300</v>
       </c>
       <c r="H15" s="3">
-        <v>23758200</v>
+        <v>24245000</v>
       </c>
       <c r="I15" s="3">
-        <v>22101700</v>
+        <v>22554600</v>
       </c>
       <c r="J15" s="3">
-        <v>20080000</v>
+        <v>20491400</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -915,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>283322100</v>
+        <v>289127600</v>
       </c>
       <c r="E17" s="3">
-        <v>226328100</v>
+        <v>230965700</v>
       </c>
       <c r="F17" s="3">
-        <v>239403400</v>
+        <v>244309000</v>
       </c>
       <c r="G17" s="3">
-        <v>307312400</v>
+        <v>313609500</v>
       </c>
       <c r="H17" s="3">
-        <v>300964800</v>
+        <v>307131800</v>
       </c>
       <c r="I17" s="3">
-        <v>293881600</v>
+        <v>299903500</v>
       </c>
       <c r="J17" s="3">
-        <v>264883600</v>
+        <v>270311300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9848800</v>
+        <v>10050600</v>
       </c>
       <c r="E18" s="3">
-        <v>8818100</v>
+        <v>8998800</v>
       </c>
       <c r="F18" s="3">
-        <v>11525600</v>
+        <v>11761800</v>
       </c>
       <c r="G18" s="3">
-        <v>24698800</v>
+        <v>25204900</v>
       </c>
       <c r="H18" s="3">
-        <v>27434200</v>
+        <v>27996400</v>
       </c>
       <c r="I18" s="3">
-        <v>25380300</v>
+        <v>25900400</v>
       </c>
       <c r="J18" s="3">
-        <v>26535300</v>
+        <v>27079000</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>337700</v>
+        <v>344600</v>
       </c>
       <c r="E20" s="3">
-        <v>396600</v>
+        <v>404700</v>
       </c>
       <c r="F20" s="3">
-        <v>-444900</v>
+        <v>-454000</v>
       </c>
       <c r="G20" s="3">
-        <v>703700</v>
+        <v>718200</v>
       </c>
       <c r="H20" s="3">
-        <v>1136100</v>
+        <v>1159400</v>
       </c>
       <c r="I20" s="3">
-        <v>1520600</v>
+        <v>1551800</v>
       </c>
       <c r="J20" s="3">
-        <v>1838200</v>
+        <v>1875900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>44810000</v>
+        <v>45685800</v>
       </c>
       <c r="E21" s="3">
-        <v>41033700</v>
+        <v>41835500</v>
       </c>
       <c r="F21" s="3">
-        <v>40672100</v>
+        <v>41469200</v>
       </c>
       <c r="G21" s="3">
-        <v>51287300</v>
+        <v>52306500</v>
       </c>
       <c r="H21" s="3">
-        <v>52398700</v>
+        <v>53443200</v>
       </c>
       <c r="I21" s="3">
-        <v>49068000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>48512900</v>
+        <v>50046300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2465800</v>
+        <v>2516300</v>
       </c>
       <c r="E22" s="3">
-        <v>2650000</v>
+        <v>2704300</v>
       </c>
       <c r="F22" s="3">
-        <v>2672700</v>
+        <v>2727500</v>
       </c>
       <c r="G22" s="3">
-        <v>2605100</v>
+        <v>2658500</v>
       </c>
       <c r="H22" s="3">
-        <v>2674600</v>
+        <v>2729400</v>
       </c>
       <c r="I22" s="3">
-        <v>2641600</v>
+        <v>2695700</v>
       </c>
       <c r="J22" s="3">
-        <v>1583200</v>
+        <v>1615600</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7720700</v>
+        <v>7878900</v>
       </c>
       <c r="E23" s="3">
-        <v>6564700</v>
+        <v>6699200</v>
       </c>
       <c r="F23" s="3">
-        <v>8408000</v>
+        <v>8580300</v>
       </c>
       <c r="G23" s="3">
-        <v>22797500</v>
+        <v>23264600</v>
       </c>
       <c r="H23" s="3">
-        <v>25895700</v>
+        <v>26426300</v>
       </c>
       <c r="I23" s="3">
-        <v>24259300</v>
+        <v>24756400</v>
       </c>
       <c r="J23" s="3">
-        <v>26790400</v>
+        <v>27339300</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2369900</v>
+        <v>2418500</v>
       </c>
       <c r="E24" s="3">
-        <v>2293100</v>
+        <v>2340100</v>
       </c>
       <c r="F24" s="3">
-        <v>2287000</v>
+        <v>2333900</v>
       </c>
       <c r="G24" s="3">
-        <v>5487200</v>
+        <v>5599700</v>
       </c>
       <c r="H24" s="3">
-        <v>5204800</v>
+        <v>5311400</v>
       </c>
       <c r="I24" s="3">
-        <v>5263300</v>
+        <v>5371100</v>
       </c>
       <c r="J24" s="3">
-        <v>5563600</v>
+        <v>5677600</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1144,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5350800</v>
+        <v>5460400</v>
       </c>
       <c r="E26" s="3">
-        <v>4271600</v>
+        <v>4359100</v>
       </c>
       <c r="F26" s="3">
-        <v>6121000</v>
+        <v>6246400</v>
       </c>
       <c r="G26" s="3">
-        <v>17310200</v>
+        <v>17664900</v>
       </c>
       <c r="H26" s="3">
-        <v>20690900</v>
+        <v>21114900</v>
       </c>
       <c r="I26" s="3">
-        <v>18996100</v>
+        <v>19385300</v>
       </c>
       <c r="J26" s="3">
-        <v>21226800</v>
+        <v>21661800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3315500</v>
+        <v>3383500</v>
       </c>
       <c r="E27" s="3">
-        <v>1142600</v>
+        <v>1166100</v>
       </c>
       <c r="F27" s="3">
-        <v>5165200</v>
+        <v>5271100</v>
       </c>
       <c r="G27" s="3">
-        <v>15586000</v>
+        <v>15905400</v>
       </c>
       <c r="H27" s="3">
-        <v>18847600</v>
+        <v>19233800</v>
       </c>
       <c r="I27" s="3">
-        <v>16771900</v>
+        <v>17115500</v>
       </c>
       <c r="J27" s="3">
-        <v>19336500</v>
+        <v>19732700</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1279,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1306,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-337700</v>
+        <v>-344600</v>
       </c>
       <c r="E32" s="3">
-        <v>-396600</v>
+        <v>-404700</v>
       </c>
       <c r="F32" s="3">
-        <v>444900</v>
+        <v>454000</v>
       </c>
       <c r="G32" s="3">
-        <v>-703700</v>
+        <v>-718200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1136100</v>
+        <v>-1159400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1520600</v>
+        <v>-1551800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1838200</v>
+        <v>-1875900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3315500</v>
+        <v>3383500</v>
       </c>
       <c r="E33" s="3">
-        <v>1142600</v>
+        <v>1166100</v>
       </c>
       <c r="F33" s="3">
-        <v>5165200</v>
+        <v>5271100</v>
       </c>
       <c r="G33" s="3">
-        <v>15586000</v>
+        <v>15905400</v>
       </c>
       <c r="H33" s="3">
-        <v>18847600</v>
+        <v>19233800</v>
       </c>
       <c r="I33" s="3">
-        <v>16771900</v>
+        <v>17115500</v>
       </c>
       <c r="J33" s="3">
-        <v>19336500</v>
+        <v>19732700</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1387,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3315500</v>
+        <v>3383500</v>
       </c>
       <c r="E35" s="3">
-        <v>1142600</v>
+        <v>1166100</v>
       </c>
       <c r="F35" s="3">
-        <v>5165200</v>
+        <v>5271100</v>
       </c>
       <c r="G35" s="3">
-        <v>15586000</v>
+        <v>15905400</v>
       </c>
       <c r="H35" s="3">
-        <v>18847600</v>
+        <v>19233800</v>
       </c>
       <c r="I35" s="3">
-        <v>16771900</v>
+        <v>17115500</v>
       </c>
       <c r="J35" s="3">
-        <v>19336500</v>
+        <v>19732700</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1472,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>17855500</v>
+        <v>18221300</v>
       </c>
       <c r="E41" s="3">
-        <v>14242100</v>
+        <v>14533900</v>
       </c>
       <c r="F41" s="3">
-        <v>10583400</v>
+        <v>10800200</v>
       </c>
       <c r="G41" s="3">
-        <v>10729500</v>
+        <v>10949400</v>
       </c>
       <c r="H41" s="3">
-        <v>7476100</v>
+        <v>7629300</v>
       </c>
       <c r="I41" s="3">
-        <v>6310900</v>
+        <v>6440300</v>
       </c>
       <c r="J41" s="3">
-        <v>8896200</v>
+        <v>9078500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1940600</v>
+        <v>1980400</v>
       </c>
       <c r="E42" s="3">
-        <v>99800</v>
+        <v>101800</v>
       </c>
       <c r="F42" s="3">
-        <v>133700</v>
+        <v>136400</v>
       </c>
       <c r="G42" s="3">
-        <v>326200</v>
+        <v>332900</v>
       </c>
       <c r="H42" s="3">
-        <v>849700</v>
+        <v>867200</v>
       </c>
       <c r="I42" s="3">
-        <v>414500</v>
+        <v>423000</v>
       </c>
       <c r="J42" s="3">
-        <v>60800</v>
+        <v>62000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18218300</v>
+        <v>18591600</v>
       </c>
       <c r="E43" s="3">
-        <v>15332700</v>
+        <v>15646900</v>
       </c>
       <c r="F43" s="3">
-        <v>16402600</v>
+        <v>16738700</v>
       </c>
       <c r="G43" s="3">
-        <v>17523200</v>
+        <v>17882200</v>
       </c>
       <c r="H43" s="3">
-        <v>18855900</v>
+        <v>19242200</v>
       </c>
       <c r="I43" s="3">
-        <v>21955000</v>
+        <v>22404900</v>
       </c>
       <c r="J43" s="3">
-        <v>19512100</v>
+        <v>19911900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>22549400</v>
+        <v>23011400</v>
       </c>
       <c r="E44" s="3">
-        <v>23758900</v>
+        <v>24245700</v>
       </c>
       <c r="F44" s="3">
-        <v>21263500</v>
+        <v>21699200</v>
       </c>
       <c r="G44" s="3">
-        <v>27479600</v>
+        <v>28042700</v>
       </c>
       <c r="H44" s="3">
-        <v>34682000</v>
+        <v>35392700</v>
       </c>
       <c r="I44" s="3">
-        <v>31139000</v>
+        <v>31777100</v>
       </c>
       <c r="J44" s="3">
-        <v>26505100</v>
+        <v>27048200</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1267600</v>
+        <v>1293500</v>
       </c>
       <c r="E45" s="3">
-        <v>2072100</v>
+        <v>2114500</v>
       </c>
       <c r="F45" s="3">
-        <v>2422000</v>
+        <v>2471600</v>
       </c>
       <c r="G45" s="3">
-        <v>849500</v>
+        <v>866900</v>
       </c>
       <c r="H45" s="3">
-        <v>809800</v>
+        <v>826300</v>
       </c>
       <c r="I45" s="3">
-        <v>436900</v>
+        <v>445800</v>
       </c>
       <c r="J45" s="3">
-        <v>683500</v>
+        <v>697500</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>61831300</v>
+        <v>63098300</v>
       </c>
       <c r="E46" s="3">
-        <v>55505500</v>
+        <v>56642900</v>
       </c>
       <c r="F46" s="3">
-        <v>50805100</v>
+        <v>51846100</v>
       </c>
       <c r="G46" s="3">
-        <v>56907900</v>
+        <v>58074000</v>
       </c>
       <c r="H46" s="3">
-        <v>62673500</v>
+        <v>63957700</v>
       </c>
       <c r="I46" s="3">
-        <v>60256300</v>
+        <v>61491000</v>
       </c>
       <c r="J46" s="3">
-        <v>55657700</v>
+        <v>56798100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12081700</v>
+        <v>12329300</v>
       </c>
       <c r="E47" s="3">
-        <v>11776600</v>
+        <v>12017900</v>
       </c>
       <c r="F47" s="3">
-        <v>10739300</v>
+        <v>10959300</v>
       </c>
       <c r="G47" s="3">
-        <v>17768100</v>
+        <v>18132100</v>
       </c>
       <c r="H47" s="3">
-        <v>17653600</v>
+        <v>18015300</v>
       </c>
       <c r="I47" s="3">
-        <v>12441500</v>
+        <v>12696500</v>
       </c>
       <c r="J47" s="3">
-        <v>10948000</v>
+        <v>11172300</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>247640000</v>
+        <v>252715000</v>
       </c>
       <c r="E48" s="3">
-        <v>252982000</v>
+        <v>258166000</v>
       </c>
       <c r="F48" s="3">
-        <v>259579000</v>
+        <v>264898000</v>
       </c>
       <c r="G48" s="3">
-        <v>254167000</v>
+        <v>259375000</v>
       </c>
       <c r="H48" s="3">
-        <v>239788000</v>
+        <v>244702000</v>
       </c>
       <c r="I48" s="3">
-        <v>228309000</v>
+        <v>232987000</v>
       </c>
       <c r="J48" s="3">
-        <v>199531000</v>
+        <v>203620000</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8667600</v>
+        <v>8845200</v>
       </c>
       <c r="E49" s="3">
-        <v>9275400</v>
+        <v>9465400</v>
       </c>
       <c r="F49" s="3">
-        <v>9273800</v>
+        <v>9463800</v>
       </c>
       <c r="G49" s="3">
-        <v>3760100</v>
+        <v>3837100</v>
       </c>
       <c r="H49" s="3">
-        <v>3556300</v>
+        <v>3629200</v>
       </c>
       <c r="I49" s="3">
-        <v>9283500</v>
+        <v>9473800</v>
       </c>
       <c r="J49" s="3">
-        <v>7955700</v>
+        <v>8118800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1742,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1769,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>19481900</v>
+        <v>19881200</v>
       </c>
       <c r="E52" s="3">
-        <v>19005400</v>
+        <v>19394800</v>
       </c>
       <c r="F52" s="3">
-        <v>17739800</v>
+        <v>18103300</v>
       </c>
       <c r="G52" s="3">
-        <v>17225200</v>
+        <v>17578100</v>
       </c>
       <c r="H52" s="3">
-        <v>16941300</v>
+        <v>17288400</v>
       </c>
       <c r="I52" s="3">
-        <v>5132400</v>
+        <v>5237500</v>
       </c>
       <c r="J52" s="3">
-        <v>4782200</v>
+        <v>4880200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1823,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>349703000</v>
+        <v>356869000</v>
       </c>
       <c r="E54" s="3">
-        <v>348545000</v>
+        <v>355687000</v>
       </c>
       <c r="F54" s="3">
-        <v>348137000</v>
+        <v>355270000</v>
       </c>
       <c r="G54" s="3">
-        <v>349828000</v>
+        <v>356996000</v>
       </c>
       <c r="H54" s="3">
-        <v>340613000</v>
+        <v>347593000</v>
       </c>
       <c r="I54" s="3">
-        <v>315423000</v>
+        <v>321886000</v>
       </c>
       <c r="J54" s="3">
-        <v>278875000</v>
+        <v>284589000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1863,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1876,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>15008500</v>
+        <v>15316100</v>
       </c>
       <c r="E57" s="3">
-        <v>17195100</v>
+        <v>17547400</v>
       </c>
       <c r="F57" s="3">
-        <v>11714500</v>
+        <v>11954600</v>
       </c>
       <c r="G57" s="3">
-        <v>12351200</v>
+        <v>12604300</v>
       </c>
       <c r="H57" s="3">
-        <v>18957200</v>
+        <v>19345700</v>
       </c>
       <c r="I57" s="3">
-        <v>19186300</v>
+        <v>19579400</v>
       </c>
       <c r="J57" s="3">
-        <v>16493400</v>
+        <v>16831300</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>25510900</v>
+        <v>26033600</v>
       </c>
       <c r="E58" s="3">
-        <v>20852300</v>
+        <v>21279600</v>
       </c>
       <c r="F58" s="3">
-        <v>15448400</v>
+        <v>15765000</v>
       </c>
       <c r="G58" s="3">
-        <v>24596300</v>
+        <v>25100300</v>
       </c>
       <c r="H58" s="3">
-        <v>28034100</v>
+        <v>28608600</v>
       </c>
       <c r="I58" s="3">
-        <v>21995900</v>
+        <v>22446600</v>
       </c>
       <c r="J58" s="3">
-        <v>20025400</v>
+        <v>20435800</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>43345300</v>
+        <v>44233500</v>
       </c>
       <c r="E59" s="3">
-        <v>34560400</v>
+        <v>35268600</v>
       </c>
       <c r="F59" s="3">
-        <v>41393700</v>
+        <v>42241900</v>
       </c>
       <c r="G59" s="3">
-        <v>47377000</v>
+        <v>48347800</v>
       </c>
       <c r="H59" s="3">
-        <v>46882100</v>
+        <v>47842800</v>
       </c>
       <c r="I59" s="3">
-        <v>42403500</v>
+        <v>43272300</v>
       </c>
       <c r="J59" s="3">
-        <v>44927500</v>
+        <v>45848200</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>83864700</v>
+        <v>85583100</v>
       </c>
       <c r="E60" s="3">
-        <v>72607800</v>
+        <v>74095600</v>
       </c>
       <c r="F60" s="3">
-        <v>68556700</v>
+        <v>69961500</v>
       </c>
       <c r="G60" s="3">
-        <v>84324500</v>
+        <v>86052400</v>
       </c>
       <c r="H60" s="3">
-        <v>93873500</v>
+        <v>95797000</v>
       </c>
       <c r="I60" s="3">
-        <v>83585600</v>
+        <v>85298400</v>
       </c>
       <c r="J60" s="3">
-        <v>81446300</v>
+        <v>83115200</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>42154000</v>
+        <v>43017800</v>
       </c>
       <c r="E61" s="3">
-        <v>54229000</v>
+        <v>55340200</v>
       </c>
       <c r="F61" s="3">
-        <v>63185700</v>
+        <v>64480400</v>
       </c>
       <c r="G61" s="3">
-        <v>53852900</v>
+        <v>54956400</v>
       </c>
       <c r="H61" s="3">
-        <v>44045200</v>
+        <v>44947700</v>
       </c>
       <c r="I61" s="3">
-        <v>42723600</v>
+        <v>43599000</v>
       </c>
       <c r="J61" s="3">
-        <v>26275600</v>
+        <v>26814000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>22798800</v>
+        <v>23265900</v>
       </c>
       <c r="E62" s="3">
-        <v>22071300</v>
+        <v>22523600</v>
       </c>
       <c r="F62" s="3">
-        <v>20931400</v>
+        <v>21360400</v>
       </c>
       <c r="G62" s="3">
-        <v>20005600</v>
+        <v>20415600</v>
       </c>
       <c r="H62" s="3">
-        <v>18007700</v>
+        <v>18376700</v>
       </c>
       <c r="I62" s="3">
-        <v>17397200</v>
+        <v>17753700</v>
       </c>
       <c r="J62" s="3">
-        <v>13718000</v>
+        <v>13999100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2119,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>176129000</v>
+        <v>179738000</v>
       </c>
       <c r="E66" s="3">
-        <v>175625000</v>
+        <v>179224000</v>
       </c>
       <c r="F66" s="3">
-        <v>176571000</v>
+        <v>180189000</v>
       </c>
       <c r="G66" s="3">
-        <v>178818000</v>
+        <v>182482000</v>
       </c>
       <c r="H66" s="3">
-        <v>175879000</v>
+        <v>179483000</v>
       </c>
       <c r="I66" s="3">
-        <v>160684000</v>
+        <v>163976000</v>
       </c>
       <c r="J66" s="3">
-        <v>133045000</v>
+        <v>135772000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2159,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2186,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2213,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2240,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2267,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>131649000</v>
+        <v>134346000</v>
       </c>
       <c r="E72" s="3">
-        <v>131176000</v>
+        <v>133864000</v>
       </c>
       <c r="F72" s="3">
-        <v>130953000</v>
+        <v>133636000</v>
       </c>
       <c r="G72" s="3">
-        <v>127932000</v>
+        <v>130553000</v>
       </c>
       <c r="H72" s="3">
-        <v>120760000</v>
+        <v>123234000</v>
       </c>
       <c r="I72" s="3">
-        <v>109479000</v>
+        <v>111723000</v>
       </c>
       <c r="J72" s="3">
-        <v>100553000</v>
+        <v>102613000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2321,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2348,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2375,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>173574000</v>
+        <v>177130000</v>
       </c>
       <c r="E76" s="3">
-        <v>172920000</v>
+        <v>176463000</v>
       </c>
       <c r="F76" s="3">
-        <v>171566000</v>
+        <v>175082000</v>
       </c>
       <c r="G76" s="3">
-        <v>171010000</v>
+        <v>174514000</v>
       </c>
       <c r="H76" s="3">
-        <v>164734000</v>
+        <v>168109000</v>
       </c>
       <c r="I76" s="3">
-        <v>154739000</v>
+        <v>157910000</v>
       </c>
       <c r="J76" s="3">
-        <v>145829000</v>
+        <v>148817000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2429,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2461,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3315500</v>
+        <v>3383500</v>
       </c>
       <c r="E81" s="3">
-        <v>1142600</v>
+        <v>1166100</v>
       </c>
       <c r="F81" s="3">
-        <v>5165200</v>
+        <v>5271100</v>
       </c>
       <c r="G81" s="3">
-        <v>15586000</v>
+        <v>15905400</v>
       </c>
       <c r="H81" s="3">
-        <v>18847600</v>
+        <v>19233800</v>
       </c>
       <c r="I81" s="3">
-        <v>16771900</v>
+        <v>17115500</v>
       </c>
       <c r="J81" s="3">
-        <v>19336500</v>
+        <v>19732700</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2501,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>34521400</v>
+        <v>35228800</v>
       </c>
       <c r="E83" s="3">
-        <v>31725100</v>
+        <v>32375200</v>
       </c>
       <c r="F83" s="3">
-        <v>29504100</v>
+        <v>30108700</v>
       </c>
       <c r="G83" s="3">
-        <v>25808400</v>
+        <v>26337300</v>
       </c>
       <c r="H83" s="3">
-        <v>23758200</v>
+        <v>24245000</v>
       </c>
       <c r="I83" s="3">
-        <v>22101700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>20080000</v>
+        <v>22554600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2555,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2582,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2609,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2636,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2663,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>53322600</v>
+        <v>54415300</v>
       </c>
       <c r="E89" s="3">
-        <v>38565000</v>
+        <v>39355200</v>
       </c>
       <c r="F89" s="3">
-        <v>38002600</v>
+        <v>38781300</v>
       </c>
       <c r="G89" s="3">
-        <v>51842500</v>
+        <v>52904800</v>
       </c>
       <c r="H89" s="3">
-        <v>41960800</v>
+        <v>42820600</v>
       </c>
       <c r="I89" s="3">
-        <v>34799700</v>
+        <v>35512700</v>
       </c>
       <c r="J89" s="3">
-        <v>42197200</v>
+        <v>43061900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2703,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-33909500</v>
+        <v>-34021400</v>
       </c>
       <c r="E91" s="3">
-        <v>-26706800</v>
+        <v>-26870200</v>
       </c>
       <c r="F91" s="3">
-        <v>-32034400</v>
+        <v>-32316300</v>
       </c>
       <c r="G91" s="3">
-        <v>-44979500</v>
+        <v>-45495200</v>
       </c>
       <c r="H91" s="3">
-        <v>-44686600</v>
+        <v>-45131500</v>
       </c>
       <c r="I91" s="3">
-        <v>-47043400</v>
+        <v>-46265900</v>
       </c>
       <c r="J91" s="3">
-        <v>-41140500</v>
+        <v>-39770200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2757,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2784,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-35418900</v>
+        <v>-36144700</v>
       </c>
       <c r="E94" s="3">
-        <v>-25579200</v>
+        <v>-26103400</v>
       </c>
       <c r="F94" s="3">
-        <v>-31395300</v>
+        <v>-32038600</v>
       </c>
       <c r="G94" s="3">
-        <v>-42296600</v>
+        <v>-43163300</v>
       </c>
       <c r="H94" s="3">
-        <v>-38758500</v>
+        <v>-39552700</v>
       </c>
       <c r="I94" s="3">
-        <v>-48315600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-41249500</v>
+        <v>-49305700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2824,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2854200</v>
+        <v>-2912700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1228900</v>
+        <v>-1254100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4218200</v>
+        <v>-4304600</v>
       </c>
       <c r="G96" s="3">
-        <v>-8649400</v>
+        <v>-8826700</v>
       </c>
       <c r="H96" s="3">
-        <v>-7776100</v>
+        <v>-7935500</v>
       </c>
       <c r="I96" s="3">
-        <v>-8440900</v>
+        <v>-8613900</v>
       </c>
       <c r="J96" s="3">
-        <v>-9205700</v>
+        <v>-9394400</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2878,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2905,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2932,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-13775900</v>
+        <v>-14058100</v>
       </c>
       <c r="E100" s="3">
-        <v>-9744800</v>
+        <v>-9944500</v>
       </c>
       <c r="F100" s="3">
-        <v>-6608200</v>
+        <v>-6743600</v>
       </c>
       <c r="G100" s="3">
-        <v>-6444300</v>
+        <v>-6576300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1779900</v>
+        <v>-1816400</v>
       </c>
       <c r="I100" s="3">
-        <v>10959000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1346500</v>
+        <v>11183600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-514500</v>
+        <v>-525100</v>
       </c>
       <c r="E101" s="3">
-        <v>417800</v>
+        <v>426400</v>
       </c>
       <c r="F101" s="3">
-        <v>-145300</v>
+        <v>-148300</v>
       </c>
       <c r="G101" s="3">
-        <v>151800</v>
+        <v>154900</v>
       </c>
       <c r="H101" s="3">
-        <v>-257100</v>
+        <v>-262400</v>
       </c>
       <c r="I101" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-45500</v>
+        <v>-28900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3613400</v>
+        <v>3687400</v>
       </c>
       <c r="E102" s="3">
-        <v>3658700</v>
+        <v>3733700</v>
       </c>
       <c r="F102" s="3">
-        <v>-146200</v>
+        <v>-149200</v>
       </c>
       <c r="G102" s="3">
-        <v>3253400</v>
+        <v>3320100</v>
       </c>
       <c r="H102" s="3">
-        <v>1165200</v>
+        <v>1189100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2585300</v>
+        <v>-2638300</v>
       </c>
       <c r="J102" s="3">
-        <v>2248800</v>
+        <v>2294900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/PTR_YR_FIN.xlsx
+++ b/Financials/Yearly/PTR_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6581E8-8A89-4EF0-A84E-38E0197A3D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PTR" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>299178200</v>
+        <v>337692800</v>
       </c>
       <c r="E8" s="3">
-        <v>239964600</v>
+        <v>289239900</v>
       </c>
       <c r="F8" s="3">
-        <v>256070800</v>
+        <v>231993200</v>
       </c>
       <c r="G8" s="3">
-        <v>338814400</v>
+        <v>247564400</v>
       </c>
       <c r="H8" s="3">
-        <v>335128200</v>
+        <v>327559400</v>
       </c>
       <c r="I8" s="3">
-        <v>325803900</v>
+        <v>323995600</v>
       </c>
       <c r="J8" s="3">
+        <v>314981100</v>
+      </c>
+      <c r="K8" s="3">
         <v>297390300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>190813100</v>
+        <v>220817200</v>
       </c>
       <c r="E9" s="3">
-        <v>142420200</v>
+        <v>184474500</v>
       </c>
       <c r="F9" s="3">
-        <v>156838900</v>
+        <v>137689100</v>
       </c>
       <c r="G9" s="3">
-        <v>220570700</v>
+        <v>151628900</v>
       </c>
       <c r="H9" s="3">
-        <v>217391700</v>
+        <v>213243600</v>
       </c>
       <c r="I9" s="3">
-        <v>209411900</v>
+        <v>210170200</v>
       </c>
       <c r="J9" s="3">
+        <v>202455400</v>
+      </c>
+      <c r="K9" s="3">
         <v>182178200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>108365100</v>
+        <v>116875700</v>
       </c>
       <c r="E10" s="3">
-        <v>97544400</v>
+        <v>104765400</v>
       </c>
       <c r="F10" s="3">
-        <v>99231800</v>
+        <v>94304100</v>
       </c>
       <c r="G10" s="3">
-        <v>118243700</v>
+        <v>95935500</v>
       </c>
       <c r="H10" s="3">
-        <v>117736500</v>
+        <v>114315800</v>
       </c>
       <c r="I10" s="3">
-        <v>116392000</v>
+        <v>113825400</v>
       </c>
       <c r="J10" s="3">
+        <v>112525600</v>
+      </c>
+      <c r="K10" s="3">
         <v>115212200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3544600</v>
+        <v>2686800</v>
       </c>
       <c r="E12" s="3">
-        <v>2756900</v>
+        <v>3426900</v>
       </c>
       <c r="F12" s="3">
-        <v>2727800</v>
+        <v>2665300</v>
       </c>
       <c r="G12" s="3">
-        <v>3274500</v>
+        <v>2637200</v>
       </c>
       <c r="H12" s="3">
-        <v>3754900</v>
+        <v>3165700</v>
       </c>
       <c r="I12" s="3">
-        <v>3557700</v>
+        <v>3630200</v>
       </c>
       <c r="J12" s="3">
+        <v>3439500</v>
+      </c>
+      <c r="K12" s="3">
         <v>3548200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,36 +898,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>35228800</v>
+        <v>33277200</v>
       </c>
       <c r="E15" s="3">
-        <v>32375200</v>
+        <v>34058600</v>
       </c>
       <c r="F15" s="3">
-        <v>30108700</v>
+        <v>31299700</v>
       </c>
       <c r="G15" s="3">
-        <v>26337300</v>
+        <v>29108500</v>
       </c>
       <c r="H15" s="3">
-        <v>24245000</v>
+        <v>25462400</v>
       </c>
       <c r="I15" s="3">
-        <v>22554600</v>
+        <v>23439600</v>
       </c>
       <c r="J15" s="3">
+        <v>21805400</v>
+      </c>
+      <c r="K15" s="3">
         <v>20491400</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>289127600</v>
+        <v>320332200</v>
       </c>
       <c r="E17" s="3">
-        <v>230965700</v>
+        <v>279523100</v>
       </c>
       <c r="F17" s="3">
-        <v>244309000</v>
+        <v>223293300</v>
       </c>
       <c r="G17" s="3">
-        <v>313609500</v>
+        <v>236193300</v>
       </c>
       <c r="H17" s="3">
-        <v>307131800</v>
+        <v>303191700</v>
       </c>
       <c r="I17" s="3">
-        <v>299903500</v>
+        <v>296929300</v>
       </c>
       <c r="J17" s="3">
+        <v>289941100</v>
+      </c>
+      <c r="K17" s="3">
         <v>270311300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10050600</v>
+        <v>17360600</v>
       </c>
       <c r="E18" s="3">
-        <v>8998800</v>
+        <v>9716800</v>
       </c>
       <c r="F18" s="3">
-        <v>11761800</v>
+        <v>8699900</v>
       </c>
       <c r="G18" s="3">
-        <v>25204900</v>
+        <v>11371100</v>
       </c>
       <c r="H18" s="3">
-        <v>27996400</v>
+        <v>24367600</v>
       </c>
       <c r="I18" s="3">
-        <v>25900400</v>
+        <v>27066400</v>
       </c>
       <c r="J18" s="3">
+        <v>25040000</v>
+      </c>
+      <c r="K18" s="3">
         <v>27079000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>344600</v>
+        <v>1561500</v>
       </c>
       <c r="E20" s="3">
-        <v>404700</v>
+        <v>333200</v>
       </c>
       <c r="F20" s="3">
-        <v>-454000</v>
+        <v>391300</v>
       </c>
       <c r="G20" s="3">
-        <v>718200</v>
+        <v>-438900</v>
       </c>
       <c r="H20" s="3">
-        <v>1159400</v>
+        <v>694300</v>
       </c>
       <c r="I20" s="3">
-        <v>1551800</v>
+        <v>1120900</v>
       </c>
       <c r="J20" s="3">
+        <v>1500200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1875900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>45685800</v>
+        <v>52187700</v>
       </c>
       <c r="E21" s="3">
-        <v>41835500</v>
+        <v>44096600</v>
       </c>
       <c r="F21" s="3">
-        <v>41469200</v>
+        <v>40380000</v>
       </c>
       <c r="G21" s="3">
-        <v>52306500</v>
+        <v>40030500</v>
       </c>
       <c r="H21" s="3">
-        <v>53443200</v>
+        <v>50515500</v>
       </c>
       <c r="I21" s="3">
-        <v>50046300</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>51618700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>48338000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2516300</v>
+        <v>2392400</v>
       </c>
       <c r="E22" s="3">
-        <v>2704300</v>
+        <v>2432700</v>
       </c>
       <c r="F22" s="3">
-        <v>2727500</v>
+        <v>2614500</v>
       </c>
       <c r="G22" s="3">
-        <v>2658500</v>
+        <v>2636900</v>
       </c>
       <c r="H22" s="3">
-        <v>2729400</v>
+        <v>2570200</v>
       </c>
       <c r="I22" s="3">
-        <v>2695700</v>
+        <v>2638700</v>
       </c>
       <c r="J22" s="3">
+        <v>2606200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1615600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7878900</v>
+        <v>16529800</v>
       </c>
       <c r="E23" s="3">
-        <v>6699200</v>
+        <v>7617200</v>
       </c>
       <c r="F23" s="3">
-        <v>8580300</v>
+        <v>6476700</v>
       </c>
       <c r="G23" s="3">
-        <v>23264600</v>
+        <v>8295300</v>
       </c>
       <c r="H23" s="3">
-        <v>26426300</v>
+        <v>22491800</v>
       </c>
       <c r="I23" s="3">
-        <v>24756400</v>
+        <v>25548500</v>
       </c>
       <c r="J23" s="3">
+        <v>23934000</v>
+      </c>
+      <c r="K23" s="3">
         <v>27339300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2418500</v>
+        <v>6139500</v>
       </c>
       <c r="E24" s="3">
-        <v>2340100</v>
+        <v>2338200</v>
       </c>
       <c r="F24" s="3">
-        <v>2333900</v>
+        <v>2262400</v>
       </c>
       <c r="G24" s="3">
-        <v>5599700</v>
+        <v>2256400</v>
       </c>
       <c r="H24" s="3">
-        <v>5311400</v>
+        <v>5413600</v>
       </c>
       <c r="I24" s="3">
-        <v>5371100</v>
+        <v>5135000</v>
       </c>
       <c r="J24" s="3">
+        <v>5192700</v>
+      </c>
+      <c r="K24" s="3">
         <v>5677600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5460400</v>
+        <v>10390200</v>
       </c>
       <c r="E26" s="3">
-        <v>4359100</v>
+        <v>5279100</v>
       </c>
       <c r="F26" s="3">
-        <v>6246400</v>
+        <v>4214300</v>
       </c>
       <c r="G26" s="3">
-        <v>17664900</v>
+        <v>6038900</v>
       </c>
       <c r="H26" s="3">
-        <v>21114900</v>
+        <v>17078100</v>
       </c>
       <c r="I26" s="3">
-        <v>19385300</v>
+        <v>20413500</v>
       </c>
       <c r="J26" s="3">
+        <v>18741400</v>
+      </c>
+      <c r="K26" s="3">
         <v>21661800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3383500</v>
+        <v>7545800</v>
       </c>
       <c r="E27" s="3">
-        <v>1166100</v>
+        <v>3271100</v>
       </c>
       <c r="F27" s="3">
-        <v>5271100</v>
+        <v>1127300</v>
       </c>
       <c r="G27" s="3">
-        <v>15905400</v>
+        <v>5096000</v>
       </c>
       <c r="H27" s="3">
-        <v>19233800</v>
+        <v>15377000</v>
       </c>
       <c r="I27" s="3">
-        <v>17115500</v>
+        <v>18594900</v>
       </c>
       <c r="J27" s="3">
+        <v>16547000</v>
+      </c>
+      <c r="K27" s="3">
         <v>19732700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-344600</v>
+        <v>-1561500</v>
       </c>
       <c r="E32" s="3">
-        <v>-404700</v>
+        <v>-333200</v>
       </c>
       <c r="F32" s="3">
-        <v>454000</v>
+        <v>-391300</v>
       </c>
       <c r="G32" s="3">
-        <v>-718200</v>
+        <v>438900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1159400</v>
+        <v>-694300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1551800</v>
+        <v>-1120900</v>
       </c>
       <c r="J32" s="3">
+        <v>-1500200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1875900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3383500</v>
+        <v>7545800</v>
       </c>
       <c r="E33" s="3">
-        <v>1166100</v>
+        <v>3271100</v>
       </c>
       <c r="F33" s="3">
-        <v>5271100</v>
+        <v>1127300</v>
       </c>
       <c r="G33" s="3">
-        <v>15905400</v>
+        <v>5096000</v>
       </c>
       <c r="H33" s="3">
-        <v>19233800</v>
+        <v>15377000</v>
       </c>
       <c r="I33" s="3">
-        <v>17115500</v>
+        <v>18594900</v>
       </c>
       <c r="J33" s="3">
+        <v>16547000</v>
+      </c>
+      <c r="K33" s="3">
         <v>19732700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3383500</v>
+        <v>7545800</v>
       </c>
       <c r="E35" s="3">
-        <v>1166100</v>
+        <v>3271100</v>
       </c>
       <c r="F35" s="3">
-        <v>5271100</v>
+        <v>1127300</v>
       </c>
       <c r="G35" s="3">
-        <v>15905400</v>
+        <v>5096000</v>
       </c>
       <c r="H35" s="3">
-        <v>19233800</v>
+        <v>15377000</v>
       </c>
       <c r="I35" s="3">
-        <v>17115500</v>
+        <v>18594900</v>
       </c>
       <c r="J35" s="3">
+        <v>16547000</v>
+      </c>
+      <c r="K35" s="3">
         <v>19732700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>18221300</v>
+        <v>13700800</v>
       </c>
       <c r="E41" s="3">
-        <v>14533900</v>
+        <v>17616000</v>
       </c>
       <c r="F41" s="3">
-        <v>10800200</v>
+        <v>14051100</v>
       </c>
       <c r="G41" s="3">
-        <v>10949400</v>
+        <v>10441500</v>
       </c>
       <c r="H41" s="3">
-        <v>7629300</v>
+        <v>10585700</v>
       </c>
       <c r="I41" s="3">
-        <v>6440300</v>
+        <v>7375900</v>
       </c>
       <c r="J41" s="3">
+        <v>6226300</v>
+      </c>
+      <c r="K41" s="3">
         <v>9078500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1980400</v>
+        <v>1368100</v>
       </c>
       <c r="E42" s="3">
-        <v>101800</v>
+        <v>1914600</v>
       </c>
       <c r="F42" s="3">
-        <v>136400</v>
+        <v>98400</v>
       </c>
       <c r="G42" s="3">
-        <v>332900</v>
+        <v>131900</v>
       </c>
       <c r="H42" s="3">
-        <v>867200</v>
+        <v>321800</v>
       </c>
       <c r="I42" s="3">
-        <v>423000</v>
+        <v>838400</v>
       </c>
       <c r="J42" s="3">
+        <v>408900</v>
+      </c>
+      <c r="K42" s="3">
         <v>62000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18591600</v>
+        <v>27331900</v>
       </c>
       <c r="E43" s="3">
-        <v>15646900</v>
+        <v>17974000</v>
       </c>
       <c r="F43" s="3">
-        <v>16738700</v>
+        <v>15127100</v>
       </c>
       <c r="G43" s="3">
-        <v>17882200</v>
+        <v>16182700</v>
       </c>
       <c r="H43" s="3">
-        <v>19242200</v>
+        <v>17288200</v>
       </c>
       <c r="I43" s="3">
-        <v>22404900</v>
+        <v>18603000</v>
       </c>
       <c r="J43" s="3">
+        <v>21660600</v>
+      </c>
+      <c r="K43" s="3">
         <v>19911900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23011400</v>
+        <v>53047000</v>
       </c>
       <c r="E44" s="3">
-        <v>24245700</v>
+        <v>22247000</v>
       </c>
       <c r="F44" s="3">
-        <v>21699200</v>
+        <v>23440300</v>
       </c>
       <c r="G44" s="3">
-        <v>28042700</v>
+        <v>20978400</v>
       </c>
       <c r="H44" s="3">
-        <v>35392700</v>
+        <v>27111100</v>
       </c>
       <c r="I44" s="3">
-        <v>31777100</v>
+        <v>34217000</v>
       </c>
       <c r="J44" s="3">
+        <v>30721500</v>
+      </c>
+      <c r="K44" s="3">
         <v>27048200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1293500</v>
+        <v>8135500</v>
       </c>
       <c r="E45" s="3">
-        <v>2114500</v>
+        <v>1250600</v>
       </c>
       <c r="F45" s="3">
-        <v>2471600</v>
+        <v>2044300</v>
       </c>
       <c r="G45" s="3">
-        <v>866900</v>
+        <v>2389500</v>
       </c>
       <c r="H45" s="3">
-        <v>826300</v>
+        <v>838100</v>
       </c>
       <c r="I45" s="3">
-        <v>445800</v>
+        <v>798900</v>
       </c>
       <c r="J45" s="3">
+        <v>431000</v>
+      </c>
+      <c r="K45" s="3">
         <v>697500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>63098300</v>
+        <v>62878800</v>
       </c>
       <c r="E46" s="3">
-        <v>56642900</v>
+        <v>61002200</v>
       </c>
       <c r="F46" s="3">
-        <v>51846100</v>
+        <v>54761300</v>
       </c>
       <c r="G46" s="3">
-        <v>58074000</v>
+        <v>50123900</v>
       </c>
       <c r="H46" s="3">
-        <v>63957700</v>
+        <v>56144900</v>
       </c>
       <c r="I46" s="3">
-        <v>61491000</v>
+        <v>61833100</v>
       </c>
       <c r="J46" s="3">
+        <v>59448400</v>
+      </c>
+      <c r="K46" s="3">
         <v>56798100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12329300</v>
+        <v>26313200</v>
       </c>
       <c r="E47" s="3">
-        <v>12017900</v>
+        <v>11919700</v>
       </c>
       <c r="F47" s="3">
-        <v>10959300</v>
+        <v>11618700</v>
       </c>
       <c r="G47" s="3">
-        <v>18132100</v>
+        <v>10595300</v>
       </c>
       <c r="H47" s="3">
-        <v>18015300</v>
+        <v>17529800</v>
       </c>
       <c r="I47" s="3">
-        <v>12696500</v>
+        <v>17416900</v>
       </c>
       <c r="J47" s="3">
+        <v>12274700</v>
+      </c>
+      <c r="K47" s="3">
         <v>11172300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>252715000</v>
+        <v>490028000</v>
       </c>
       <c r="E48" s="3">
-        <v>258166000</v>
+        <v>244320000</v>
       </c>
       <c r="F48" s="3">
-        <v>264898000</v>
+        <v>249590000</v>
       </c>
       <c r="G48" s="3">
-        <v>259375000</v>
+        <v>256098000</v>
       </c>
       <c r="H48" s="3">
-        <v>244702000</v>
+        <v>250759000</v>
       </c>
       <c r="I48" s="3">
-        <v>232987000</v>
+        <v>236573000</v>
       </c>
       <c r="J48" s="3">
+        <v>225248000</v>
+      </c>
+      <c r="K48" s="3">
         <v>203620000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8845200</v>
+        <v>25836700</v>
       </c>
       <c r="E49" s="3">
-        <v>9465400</v>
+        <v>8551400</v>
       </c>
       <c r="F49" s="3">
-        <v>9463800</v>
+        <v>9151000</v>
       </c>
       <c r="G49" s="3">
-        <v>3837100</v>
+        <v>9149400</v>
       </c>
       <c r="H49" s="3">
-        <v>3629200</v>
+        <v>3709700</v>
       </c>
       <c r="I49" s="3">
-        <v>9473800</v>
+        <v>3508700</v>
       </c>
       <c r="J49" s="3">
+        <v>9159000</v>
+      </c>
+      <c r="K49" s="3">
         <v>8118800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>19881200</v>
+        <v>23247600</v>
       </c>
       <c r="E52" s="3">
-        <v>19394800</v>
+        <v>19220700</v>
       </c>
       <c r="F52" s="3">
-        <v>18103300</v>
+        <v>18750500</v>
       </c>
       <c r="G52" s="3">
-        <v>17578100</v>
+        <v>17502000</v>
       </c>
       <c r="H52" s="3">
-        <v>17288400</v>
+        <v>16994200</v>
       </c>
       <c r="I52" s="3">
-        <v>5237500</v>
+        <v>16714100</v>
       </c>
       <c r="J52" s="3">
+        <v>5063600</v>
+      </c>
+      <c r="K52" s="3">
         <v>4880200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>356869000</v>
+        <v>350259000</v>
       </c>
       <c r="E54" s="3">
-        <v>355687000</v>
+        <v>345014000</v>
       </c>
       <c r="F54" s="3">
-        <v>355270000</v>
+        <v>343872000</v>
       </c>
       <c r="G54" s="3">
-        <v>356996000</v>
+        <v>343469000</v>
       </c>
       <c r="H54" s="3">
-        <v>347593000</v>
+        <v>345137000</v>
       </c>
       <c r="I54" s="3">
-        <v>321886000</v>
+        <v>336046000</v>
       </c>
       <c r="J54" s="3">
+        <v>311193000</v>
+      </c>
+      <c r="K54" s="3">
         <v>284589000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>15316100</v>
+        <v>52798200</v>
       </c>
       <c r="E57" s="3">
-        <v>17547400</v>
+        <v>14807300</v>
       </c>
       <c r="F57" s="3">
-        <v>11954600</v>
+        <v>16964500</v>
       </c>
       <c r="G57" s="3">
-        <v>12604300</v>
+        <v>11557500</v>
       </c>
       <c r="H57" s="3">
-        <v>19345700</v>
+        <v>12185600</v>
       </c>
       <c r="I57" s="3">
-        <v>19579400</v>
+        <v>18703000</v>
       </c>
       <c r="J57" s="3">
+        <v>18929000</v>
+      </c>
+      <c r="K57" s="3">
         <v>16831300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>26033600</v>
+        <v>41754800</v>
       </c>
       <c r="E58" s="3">
-        <v>21279600</v>
+        <v>25168800</v>
       </c>
       <c r="F58" s="3">
-        <v>15765000</v>
+        <v>20572700</v>
       </c>
       <c r="G58" s="3">
-        <v>25100300</v>
+        <v>15241300</v>
       </c>
       <c r="H58" s="3">
-        <v>28608600</v>
+        <v>24266500</v>
       </c>
       <c r="I58" s="3">
-        <v>22446600</v>
+        <v>27658200</v>
       </c>
       <c r="J58" s="3">
+        <v>21700900</v>
+      </c>
+      <c r="K58" s="3">
         <v>20435800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>44233500</v>
+        <v>57446400</v>
       </c>
       <c r="E59" s="3">
-        <v>35268600</v>
+        <v>42764100</v>
       </c>
       <c r="F59" s="3">
-        <v>42241900</v>
+        <v>34097000</v>
       </c>
       <c r="G59" s="3">
-        <v>48347800</v>
+        <v>40838700</v>
       </c>
       <c r="H59" s="3">
-        <v>47842800</v>
+        <v>46741800</v>
       </c>
       <c r="I59" s="3">
-        <v>43272300</v>
+        <v>46253500</v>
       </c>
       <c r="J59" s="3">
+        <v>41834900</v>
+      </c>
+      <c r="K59" s="3">
         <v>45848200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>85583100</v>
+        <v>85575800</v>
       </c>
       <c r="E60" s="3">
-        <v>74095600</v>
+        <v>82740200</v>
       </c>
       <c r="F60" s="3">
-        <v>69961500</v>
+        <v>71634300</v>
       </c>
       <c r="G60" s="3">
-        <v>86052400</v>
+        <v>67637500</v>
       </c>
       <c r="H60" s="3">
-        <v>95797000</v>
+        <v>83193900</v>
       </c>
       <c r="I60" s="3">
-        <v>85298400</v>
+        <v>92614800</v>
       </c>
       <c r="J60" s="3">
+        <v>82464800</v>
+      </c>
+      <c r="K60" s="3">
         <v>83115200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>43017800</v>
+        <v>38656700</v>
       </c>
       <c r="E61" s="3">
-        <v>55340200</v>
+        <v>41588800</v>
       </c>
       <c r="F61" s="3">
-        <v>64480400</v>
+        <v>53501800</v>
       </c>
       <c r="G61" s="3">
-        <v>54956400</v>
+        <v>62338500</v>
       </c>
       <c r="H61" s="3">
-        <v>44947700</v>
+        <v>53130800</v>
       </c>
       <c r="I61" s="3">
-        <v>43599000</v>
+        <v>43454600</v>
       </c>
       <c r="J61" s="3">
+        <v>42150700</v>
+      </c>
+      <c r="K61" s="3">
         <v>26814000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>23265900</v>
+        <v>45185600</v>
       </c>
       <c r="E62" s="3">
-        <v>22523600</v>
+        <v>22493100</v>
       </c>
       <c r="F62" s="3">
-        <v>21360400</v>
+        <v>21775400</v>
       </c>
       <c r="G62" s="3">
-        <v>20415600</v>
+        <v>20650800</v>
       </c>
       <c r="H62" s="3">
-        <v>18376700</v>
+        <v>19737400</v>
       </c>
       <c r="I62" s="3">
-        <v>17753700</v>
+        <v>17766300</v>
       </c>
       <c r="J62" s="3">
+        <v>17163900</v>
+      </c>
+      <c r="K62" s="3">
         <v>13999100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>179738000</v>
+        <v>176065000</v>
       </c>
       <c r="E66" s="3">
-        <v>179224000</v>
+        <v>173768000</v>
       </c>
       <c r="F66" s="3">
-        <v>180189000</v>
+        <v>173270000</v>
       </c>
       <c r="G66" s="3">
-        <v>182482000</v>
+        <v>174203000</v>
       </c>
       <c r="H66" s="3">
-        <v>179483000</v>
+        <v>176420000</v>
       </c>
       <c r="I66" s="3">
-        <v>163976000</v>
+        <v>173521000</v>
       </c>
       <c r="J66" s="3">
+        <v>158529000</v>
+      </c>
+      <c r="K66" s="3">
         <v>135772000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>134346000</v>
+        <v>286166000</v>
       </c>
       <c r="E72" s="3">
-        <v>133864000</v>
+        <v>129883000</v>
       </c>
       <c r="F72" s="3">
-        <v>133636000</v>
+        <v>129417000</v>
       </c>
       <c r="G72" s="3">
-        <v>130553000</v>
+        <v>129197000</v>
       </c>
       <c r="H72" s="3">
-        <v>123234000</v>
+        <v>126216000</v>
       </c>
       <c r="I72" s="3">
-        <v>111723000</v>
+        <v>119140000</v>
       </c>
       <c r="J72" s="3">
+        <v>108011000</v>
+      </c>
+      <c r="K72" s="3">
         <v>102613000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>177130000</v>
+        <v>174194000</v>
       </c>
       <c r="E76" s="3">
-        <v>176463000</v>
+        <v>171246000</v>
       </c>
       <c r="F76" s="3">
-        <v>175082000</v>
+        <v>170601000</v>
       </c>
       <c r="G76" s="3">
-        <v>174514000</v>
+        <v>169266000</v>
       </c>
       <c r="H76" s="3">
-        <v>168109000</v>
+        <v>168717000</v>
       </c>
       <c r="I76" s="3">
-        <v>157910000</v>
+        <v>162525000</v>
       </c>
       <c r="J76" s="3">
+        <v>152664000</v>
+      </c>
+      <c r="K76" s="3">
         <v>148817000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3383500</v>
+        <v>7545800</v>
       </c>
       <c r="E81" s="3">
-        <v>1166100</v>
+        <v>3271100</v>
       </c>
       <c r="F81" s="3">
-        <v>5271100</v>
+        <v>1127300</v>
       </c>
       <c r="G81" s="3">
-        <v>15905400</v>
+        <v>5096000</v>
       </c>
       <c r="H81" s="3">
-        <v>19233800</v>
+        <v>15377000</v>
       </c>
       <c r="I81" s="3">
-        <v>17115500</v>
+        <v>18594900</v>
       </c>
       <c r="J81" s="3">
+        <v>16547000</v>
+      </c>
+      <c r="K81" s="3">
         <v>19732700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>35228800</v>
+        <v>33277200</v>
       </c>
       <c r="E83" s="3">
-        <v>32375200</v>
+        <v>34058600</v>
       </c>
       <c r="F83" s="3">
-        <v>30108700</v>
+        <v>31299700</v>
       </c>
       <c r="G83" s="3">
-        <v>26337300</v>
+        <v>29108500</v>
       </c>
       <c r="H83" s="3">
-        <v>24245000</v>
+        <v>25462400</v>
       </c>
       <c r="I83" s="3">
-        <v>22554600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>23439600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>21805400</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>54415300</v>
+        <v>50442500</v>
       </c>
       <c r="E89" s="3">
-        <v>39355200</v>
+        <v>52607700</v>
       </c>
       <c r="F89" s="3">
-        <v>38781300</v>
+        <v>38047900</v>
       </c>
       <c r="G89" s="3">
-        <v>52904800</v>
+        <v>37493000</v>
       </c>
       <c r="H89" s="3">
-        <v>42820600</v>
+        <v>51147300</v>
       </c>
       <c r="I89" s="3">
-        <v>35512700</v>
+        <v>41398100</v>
       </c>
       <c r="J89" s="3">
+        <v>34333000</v>
+      </c>
+      <c r="K89" s="3">
         <v>43061900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-34021400</v>
+        <v>-38340700</v>
       </c>
       <c r="E91" s="3">
-        <v>-26870200</v>
+        <v>-32891200</v>
       </c>
       <c r="F91" s="3">
-        <v>-32316300</v>
+        <v>-25977600</v>
       </c>
       <c r="G91" s="3">
-        <v>-45495200</v>
+        <v>-31242800</v>
       </c>
       <c r="H91" s="3">
-        <v>-45131500</v>
+        <v>-43983900</v>
       </c>
       <c r="I91" s="3">
-        <v>-46265900</v>
+        <v>-43632300</v>
       </c>
       <c r="J91" s="3">
+        <v>-44729000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39770200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-36144700</v>
+        <v>-38414200</v>
       </c>
       <c r="E94" s="3">
-        <v>-26103400</v>
+        <v>-34944000</v>
       </c>
       <c r="F94" s="3">
-        <v>-32038600</v>
+        <v>-25236300</v>
       </c>
       <c r="G94" s="3">
-        <v>-43163300</v>
+        <v>-30974300</v>
       </c>
       <c r="H94" s="3">
-        <v>-39552700</v>
+        <v>-41729400</v>
       </c>
       <c r="I94" s="3">
-        <v>-49305700</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-38238900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-47667800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-2912700</v>
+        <v>-3926900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1254100</v>
+        <v>-2815900</v>
       </c>
       <c r="F96" s="3">
-        <v>-4304600</v>
+        <v>-1212400</v>
       </c>
       <c r="G96" s="3">
-        <v>-8826700</v>
+        <v>-4161600</v>
       </c>
       <c r="H96" s="3">
-        <v>-7935500</v>
+        <v>-8533500</v>
       </c>
       <c r="I96" s="3">
-        <v>-8613900</v>
+        <v>-7671900</v>
       </c>
       <c r="J96" s="3">
+        <v>-8327700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9394400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-14058100</v>
+        <v>-17721900</v>
       </c>
       <c r="E100" s="3">
-        <v>-9944500</v>
+        <v>-13591100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6743600</v>
+        <v>-9614200</v>
       </c>
       <c r="G100" s="3">
-        <v>-6576300</v>
+        <v>-6519600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1816400</v>
+        <v>-6357900</v>
       </c>
       <c r="I100" s="3">
-        <v>11183600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1756100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10812100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-525100</v>
+        <v>359100</v>
       </c>
       <c r="E101" s="3">
-        <v>426400</v>
+        <v>-507600</v>
       </c>
       <c r="F101" s="3">
-        <v>-148300</v>
+        <v>412200</v>
       </c>
       <c r="G101" s="3">
-        <v>154900</v>
+        <v>-143300</v>
       </c>
       <c r="H101" s="3">
-        <v>-262400</v>
+        <v>149800</v>
       </c>
       <c r="I101" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-253700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3687400</v>
+        <v>-5334400</v>
       </c>
       <c r="E102" s="3">
-        <v>3733700</v>
+        <v>3564900</v>
       </c>
       <c r="F102" s="3">
-        <v>-149200</v>
+        <v>3609700</v>
       </c>
       <c r="G102" s="3">
-        <v>3320100</v>
+        <v>-144200</v>
       </c>
       <c r="H102" s="3">
-        <v>1189100</v>
+        <v>3209800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2638300</v>
+        <v>1149600</v>
       </c>
       <c r="J102" s="3">
+        <v>-2550600</v>
+      </c>
+      <c r="K102" s="3">
         <v>2294900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
